--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -912,10 +924,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -959,28 +971,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1005,28 +1017,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1607,10 +1619,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1654,28 +1666,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1700,28 +1712,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="2">
+      <c r="I55" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2302,10 +2314,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2349,28 +2361,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2395,28 +2407,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2852,10 +2864,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2899,28 +2911,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2945,28 +2957,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3228,10 +3240,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3275,28 +3287,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3321,28 +3333,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3633,10 +3645,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3680,28 +3692,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3726,28 +3738,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4009,10 +4021,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="J134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4056,28 +4068,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4102,28 +4114,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4182,10 +4194,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4229,28 +4241,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4275,28 +4287,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4367,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
